--- a/baust_info/_19batch_2_I.xlsx
+++ b/baust_info/_19batch_2_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AKZRASELGIT\raselrahman.github.io\baust_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1B700-499A-45EE-8430-FD58A0120489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53A855-1063-4047-B42F-CB85E592311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
